--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/artfynd/A 30839-2023.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/artfynd/A 30839-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111050981</v>
       </c>
       <c r="B2" t="n">
-        <v>78098</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111051130</v>
+        <v>111051691</v>
       </c>
       <c r="B3" t="n">
-        <v>77258</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111051698</v>
+        <v>111051603</v>
       </c>
       <c r="B4" t="n">
-        <v>77259</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
